--- a/Schema/19E_Golub/SLO_CelPracyArchiwalny.xlsx
+++ b/Schema/19E_Golub/SLO_CelPracyArchiwalny.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19_Golub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19E_Golub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F27CD9-BF3E-4E6B-9129-E2B3057F3AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{907DA6ED-CDB9-47D7-B3BB-081A77B7A671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28740" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{F0E9CA50-C639-44D6-9257-D982C3F56BAC}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{2FD297F2-6A7B-44F7-8164-84193CA73916}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{6393D557-C4EA-473C-85D4-FE255D9C2B74}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19_Golub\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
+  <connection id="1" xr16:uid="{FD4C8FDD-8BEB-40D2-965A-EC4AFF7F7363}" name="SLO_CelPracyArchiwalny" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\grzeg\source\repos\ReadOpXML\Schema\19E_Golub\SLO_CelPracyArchiwalny.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Kolumna1</t>
   </si>
@@ -39,6 +39,63 @@
     <t>value</t>
   </si>
   <si>
+    <t>założenie ewidencji gruntów i budynków (EGiB)</t>
+  </si>
+  <si>
+    <t>modernizacja ewidencji gruntów i budynków (EGiB)</t>
+  </si>
+  <si>
+    <t>aktualizacja ewidencji gruntów i budynków (EGiB)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych obiektów topograficznych (BDOT500)</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych obiektów topograficznych (BDOT500)</t>
+  </si>
+  <si>
+    <t>utworzenie bazy danych szczegółowych osnów geodezyjnych (BDSOG)</t>
+  </si>
+  <si>
+    <t>aktualizacja bazy danych szczegółowych osnów geodezyjnych (BDSOG)</t>
+  </si>
+  <si>
+    <t>mapa z projektem podziału nieruchomości</t>
+  </si>
+  <si>
+    <t>mapa z projektem podziału nieruchomości rolnej/leśnej</t>
+  </si>
+  <si>
+    <t>mapa z projektem scalenia i podziału nieruchomości</t>
+  </si>
+  <si>
+    <t>projekt scalenia gruntów</t>
+  </si>
+  <si>
+    <t>projekt wymiany gruntów</t>
+  </si>
+  <si>
+    <t>inna mapa do celów prawnych</t>
+  </si>
+  <si>
+    <t>rozgraniczenie nieruchomości</t>
+  </si>
+  <si>
+    <t>wznowienie znaków granicznych/wyznaczenie punktów/ustalenie przebiegu granic działek</t>
+  </si>
+  <si>
+    <t>mapa do celów projektowych</t>
+  </si>
+  <si>
+    <t>tyczenie obiektów budowlanych</t>
+  </si>
+  <si>
     <t>podział działki</t>
   </si>
   <si>
@@ -48,9 +105,6 @@
     <t>rozgraniczenie</t>
   </si>
   <si>
-    <t>mapa do celów projektowych</t>
-  </si>
-  <si>
     <t>rozgraniczenie i podział</t>
   </si>
   <si>
@@ -196,6 +250,12 @@
   </si>
   <si>
     <t>utworzenie bazy danych numerycznego modelu terenu (NMT)</t>
+  </si>
+  <si>
+    <t>inny cel</t>
+  </si>
+  <si>
+    <t>geodezyjna inwentaryzacja powykonawcza obiektów budowlanych</t>
   </si>
 </sst>
 </file>
@@ -232,9 +292,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -283,16 +344,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2F71F5B-337C-4262-A6C7-70A9223A2F41}" name="Tabela1" displayName="Tabela1" ref="A1:C54" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C54" xr:uid="{AFF2EED0-FDB2-4CF7-AEAF-F34170BCAD3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5089DF0E-4F89-45D4-BB3E-C65D8FE95777}" name="Tabela1" displayName="Tabela1" ref="A1:C75" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:C75" xr:uid="{3AA6E26A-D99D-4B84-A469-FBF8DD59D6F6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C75">
+    <sortCondition ref="A1:A75"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3359AB39-6B58-4BB1-A3F0-22A2F3C1079A}" uniqueName="key" name="key">
+    <tableColumn id="1" xr3:uid="{771501E3-B458-40DC-A35C-0D22F0ECD450}" uniqueName="key" name="key">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/key" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E0D0C7F4-0C6B-4369-BF0F-CC3F57A12948}" uniqueName="value" name="value">
+    <tableColumn id="2" xr3:uid="{838067DB-9717-4F4A-9313-8924B6883932}" uniqueName="value" name="value">
       <xmlColumnPr mapId="1" xpath="/SLO_CelPracyArchiwalny/entry/value" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{60A02681-CB00-4917-AD1C-7D77085BDE35}" uniqueName="3" name="Kolumna1" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{4F09C2F5-6E95-465D-81AF-358FC6AD9EFB}" uniqueName="3" name="Kolumna1" dataDxfId="0">
       <calculatedColumnFormula>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -597,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C54"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,638 +686,890 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100001</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="podział działki"/&gt;</v>
+        <v>&lt;enumeration value="założenie ewidencji gruntów i budynków (EGiB)"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100003</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="projekt podziału i wyniesienie  w terenie"/&gt;</v>
+        <v>&lt;enumeration value="modernizacja ewidencji gruntów i budynków (EGiB)"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100002</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="rozgraniczenie"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja ewidencji gruntów i budynków (EGiB)"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100005</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="mapa do celów projektowych"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100004</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="rozgraniczenie i podział"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych geodezyjnej sieci uzbrojenia terenu (GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100007</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wydzielenie zabudowań"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych (BDOT500)"/&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100006</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wznowienie granic"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych (BDOT500)"/&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100009</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.budynku"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych szczegółowych osnów geodezyjnych (BDSOG)"/&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100008</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="rozgraniczenie drogi"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych szczegółowych osnów geodezyjnych (BDSOG)"/&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100011</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwet.sieci wodociąg."/&gt;</v>
+        <v>&lt;enumeration value="mapa z projektem podziału nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100010</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="ustalenie granic"/&gt;</v>
+        <v>&lt;enumeration value="mapa z projektem podziału nieruchomości rolnej/leśnej"/&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100013</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja mapy zasadniczej"/&gt;</v>
+        <v>&lt;enumeration value="mapa z projektem scalenia i podziału nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100012</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="kontr.terenowa ewid.grunt"/&gt;</v>
+        <v>&lt;enumeration value="projekt scalenia gruntów"/&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100015</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.powykonawcza"/&gt;</v>
+        <v>&lt;enumeration value="projekt wymiany gruntów"/&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100014</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.sieci telekom."/&gt;</v>
+        <v>&lt;enumeration value="inna mapa do celów prawnych"/&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100017</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar syt.wys."/&gt;</v>
+        <v>&lt;enumeration value="rozgraniczenie nieruchomości"/&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100016</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.sieci kanaliz."/&gt;</v>
+        <v>&lt;enumeration value="wznowienie znaków granicznych/wyznaczenie punktów/ustalenie przebiegu granic działek"/&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100019</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.przyłącza kanalizacyjnego"/&gt;</v>
+        <v>&lt;enumeration value="mapa do celów projektowych"/&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100018</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wyniesienie granicy-wyrok Sądu"/&gt;</v>
+        <v>&lt;enumeration value="tyczenie obiektów budowlanych"/&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100021</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C21" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.przyłącza energ."/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100020</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C22" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.przyłącza wodociągowego"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>100023</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C23" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="okresowa weryfikacja ewidencji gruntów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>100022</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C24" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.przyłącza telefonicznego"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>100025</v>
+        <v>104</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C25" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwet.drogi"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>100024</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C26" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="zmiana nośnika map"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>100027</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C27" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.sieci energet."/&gt;</v>
+        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>100026</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C28" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="pomiar użytków"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>100029</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C29" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja geodezyjna drogi"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>100028</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="C30" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.linii energet."/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>100031</v>
+        <v>110</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C31" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.sieci wodociągowej"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>100030</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C32" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.przyłącza gazowego"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>100033</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C33" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.słupów"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>100032</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C34" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwent.urządzeń podziem."/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>100034</v>
+        <v>114</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C35" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="wymiana gruntow"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C36" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG)"/&gt;</v>
+        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru podstawowych osnów geodezyjnych, grawimetrycznych i magnetycznych (PRPOG) Dziennik Ustaw – 35 – Poz. 1183"/&gt;</v>
+        <v>75</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="geodezyjna inwentaryzacja powykonawcza obiektów budowlanych"/&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="str">
-        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>74</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inny cel"/&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>103</v>
+        <v>100001</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C39" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów topograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:10 000–1:100 000, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOT10k)"/&gt;</v>
+        <v>&lt;enumeration value="podział działki"/&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>104</v>
+        <v>100002</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C40" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="rozgraniczenie"/&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>105</v>
+        <v>100003</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C41" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych obiektów ogólnogeograficznych o szczegółowości zapewniającej tworzenie standardowych opracowań kartograficznych w skalach 1:250 000 i mniejszych, w tym kartograficznych opracowań numerycznego modelu rzeźby terenu (BDOO)"/&gt;</v>
+        <v>&lt;enumeration value="projekt podziału i wyniesienie  w terenie"/&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>106</v>
+        <v>100004</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C42" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="rozgraniczenie i podział"/&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>100075</v>
+        <v>100005</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C43" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="Założenie ewidencji budynków"/&gt;</v>
+        <v>&lt;enumeration value="mapa do celów projektowych"/&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>107</v>
+        <v>100006</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C44" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja krajowej bazy danych geodezyjnej ewidencji sieci uzbrojenia terenu (K-GESUT)"/&gt;</v>
+        <v>&lt;enumeration value="wznowienie granic"/&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>108</v>
+        <v>100007</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C45" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="wydzielenie zabudowań"/&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>100077</v>
+        <v>100008</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C46" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inwentaryzacja powykonawcza budowli"/&gt;</v>
+        <v>&lt;enumeration value="rozgraniczenie drogi"/&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>109</v>
+        <v>100009</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C47" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych zintegrowanych kopii baz danych BDOT10k"/&gt;</v>
+        <v>&lt;enumeration value="inwent.budynku"/&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>100076</v>
+        <v>100010</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C48" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="inne opracowania do celów prawnych"/&gt;</v>
+        <v>&lt;enumeration value="ustalenie granic"/&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>110</v>
+        <v>100011</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C49" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG) Dziennik Ustaw – 36 – Poz. 1183"/&gt;</v>
+        <v>&lt;enumeration value="inwet.sieci wodociąg."/&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>111</v>
+        <v>100012</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C50" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru granic i powierzchni jednostek podziałów terytorialnych kraju (PRG)"/&gt;</v>
+        <v>&lt;enumeration value="kontr.terenowa ewid.grunt"/&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>112</v>
+        <v>100013</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C51" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="aktualizacja mapy zasadniczej"/&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>113</v>
+        <v>100014</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C52" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="aktualizacja bazy danych państwowego rejestru nazw geograficznych (PRNG)"/&gt;</v>
+        <v>&lt;enumeration value="inwent.sieci telekom."/&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>114</v>
+        <v>100015</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C53" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych ortofotomapy"/&gt;</v>
+        <v>&lt;enumeration value="inwent.powykonawcza"/&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>115</v>
+        <v>100016</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C54" t="str">
         <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
-        <v>&lt;enumeration value="utworzenie bazy danych numerycznego modelu terenu (NMT)"/&gt;</v>
+        <v>&lt;enumeration value="inwent.sieci kanaliz."/&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100017</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="pomiar syt.wys."/&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100018</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="wyniesienie granicy-wyrok Sądu"/&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100019</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.przyłącza kanalizacyjnego"/&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100020</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.przyłącza wodociągowego"/&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100021</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.przyłącza energ."/&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>100022</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.przyłącza telefonicznego"/&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>100023</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="okresowa weryfikacja ewidencji gruntów"/&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>100024</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C62" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="zmiana nośnika map"/&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>100025</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwet.drogi"/&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100026</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="pomiar użytków"/&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>100027</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.sieci energet."/&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>100028</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.linii energet."/&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>100029</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwentaryzacja geodezyjna drogi"/&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>100030</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.przyłącza gazowego"/&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100031</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.sieci wodociągowej"/&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>100032</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.urządzeń podziem."/&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>100033</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwent.słupów"/&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>100034</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="wymiana gruntow"/&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>100075</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="Założenie ewidencji budynków"/&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>100076</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inne opracowania do celów prawnych"/&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>100077</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="str">
+        <f>"&lt;enumeration value=""" &amp; Tabela1[[#This Row],[value]] &amp; """/&gt;"</f>
+        <v>&lt;enumeration value="inwentaryzacja powykonawcza budowli"/&gt;</v>
       </c>
     </row>
   </sheetData>
